--- a/URS/DbLayouts/L6-共同作業/CdInsurer.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdInsurer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE87FA4A-6DA0-444F-B1F7-C91853B6812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6B400-581B-4E32-9B25-C31D86DB5C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -265,14 +265,23 @@
 2:鑑定公司</t>
   </si>
   <si>
-    <t>Y:啟用,N:未啟用</t>
-  </si>
-  <si>
     <t>Key ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公司統編</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsurerId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:啟用,N:停用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,6 +583,9 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -915,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -951,7 +963,7 @@
       <c r="A2" s="30"/>
       <c r="B2" s="32"/>
       <c r="C2" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>21</v>
@@ -1080,61 +1092,61 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="48.6">
+    <row r="11" spans="1:7">
       <c r="A11" s="29">
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E11" s="29">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" ht="48.6">
       <c r="A12" s="29">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="29">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E13" s="29">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -1144,16 +1156,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -1163,16 +1175,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -1182,55 +1194,55 @@
         <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>53</v>
-      </c>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="29">
         <v>9</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="29">
         <v>10</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="29">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
@@ -1239,15 +1251,17 @@
         <v>11</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="E19" s="29">
+        <v>6</v>
+      </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
@@ -1256,27 +1270,36 @@
         <v>12</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="29">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="34">
+        <v>13</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="29">
+        <v>6</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="4"/>
@@ -1295,30 +1318,38 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
       <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
